--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileSanPham.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileSanPham.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGA\Documents\Projects\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -32,49 +32,22 @@
     <t>Có thể bán</t>
   </si>
   <si>
-    <t>Có thể kê toa thuốc</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm</t>
-  </si>
-  <si>
     <t>Nhóm sản phẩm</t>
   </si>
   <si>
     <t>Giá bán</t>
   </si>
   <si>
-    <t>Giá vốn</t>
-  </si>
-  <si>
     <t>Mã sản phẩm</t>
   </si>
   <si>
-    <t>Tiểu phẩu răng khôn</t>
-  </si>
-  <si>
-    <t>Không quản lý tồn kho</t>
-  </si>
-  <si>
-    <t>Nhổ răng</t>
-  </si>
-  <si>
-    <t>Trám răng</t>
-  </si>
-  <si>
-    <t>Trám răng mòn cổ</t>
-  </si>
-  <si>
-    <t>Paracetamol</t>
-  </si>
-  <si>
-    <t>Thuốc giảm đau</t>
-  </si>
-  <si>
-    <t>Alphachymotripsin</t>
-  </si>
-  <si>
-    <t>Thuốc kháng viêm</t>
+    <t>Có thể mua</t>
+  </si>
+  <si>
+    <t>Lấy cao răng và đánh bóng</t>
+  </si>
+  <si>
+    <t>Nha khoa tổng quát</t>
   </si>
 </sst>
 </file>
@@ -118,14 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,13 +387,12 @@
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="3"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,27 +400,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -460,85 +423,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3500000</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>500000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileSanPham.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileSanPham.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>Nha khoa tổng quát</t>
+  </si>
+  <si>
+    <t>Có thể đặt labo</t>
+  </si>
+  <si>
+    <t>Có thể kê toa thuốc</t>
+  </si>
+  <si>
+    <t>Loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Giá mua</t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
   </si>
 </sst>
 </file>
@@ -376,23 +391,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="4" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,16 +419,28 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -422,11 +450,23 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="I2" s="3">
         <v>100000</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
